--- a/content/resources/APTransactions_195.175.175.175_2017-08-23_merchantID.xlsx
+++ b/content/resources/APTransactions_195.175.175.175_2017-08-23_merchantID.xlsx
@@ -1,55 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamza.djebali\OneDrive - Wirecard\Desktop\images github update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wirecard.lan\fs\home\hamza.djebali\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC37878-8515-4B92-BCBB-438375D25139}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C29927-50CE-4AD4-91AF-D3CDC9B8DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="APTransactions_195.175.175.175_" sheetId="1" r:id="rId1"/>
+    <sheet name="EngineAPTFees_20210830_3bca7af5" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>MERCHANT_ACCOUNT_NAME,MERCHANT_ACCOUNT_ID,REQUEST_ID,PAYMENT_METHOD,TRANSACTION_ID,TRANS_CREATION_TIMESTAMP,TRANSACTION_TYPE,TRANSACTION_STATUS,TRANSACTION_STATUS_CODE,TRANSACTION_REASON_DESCRIPTION,TRANSACTION_AMOUNT,TRANSACTION_CURRENCY,SETTLEMENT_AMOUNT,SUM_SETTLEMENT_AMOUNT,SETTLEMENT_CURRENCY,EXCHANGE_RATE,EXCHANGE_RATE_SOURCE,USAGE,REF_TRANSACTION_ID_1,REF_TRANSACTION_ID_2,REF_TRANSACTION_ID_2,PTRID,ORDER_NUMBER</t>
+    <t>MERCHANT_ACCOUNT_NAME,MERCHANT_ACCOUNT_ID,REQUEST_ID,PAYMENT_METHOD,TRANSACTION_ID,TRANS_CREATION_TIMESTAMP,TRANSACTION_TYPE,TRANSACTION_STATUS,TRANSACTION_STATUS_CODE,TRANSACTION_REASON_DESCRIPTION,TRANSACTION_AMOUNT,TRANSACTION_CURRENCY,SETTLEMENT_AMOUNT,SUM_SETTLEMENT_AMOUNT,SETTLEMENT_CURRENCY,EXCHANGE_RATE,EXCHANGE_RATE_SOURCE,USAGE,REF_TRANSACTION_ID_1,REF_TRANSACTION_ID_2,REF_TRANSACTION_ID_3,PTRID,ORDER_NUMBER,DISAGIO_FEE,PSP_FEE</t>
   </si>
   <si>
-    <t>FA Ports_moto,21c25c02-2523-1e2e-22e1-88cbd61a610a,,creditcard,666d0262-211d-1122-b588-632f2062eda0,2021-08-20 08:53:52,purchase,failed,100.1018,The same Request Id for the Merchant Account is being tried a second time.  Please use another Request Id.,1280.000000,GBP,,,,,,,,,,,</t>
+    <t>Lemura Newtime_SOFU,5bca8af2-3fd1-5f03-b2ee-b82251162291,dc985682b63c2026ce5daaa355ccfac9-get-url,sofortbanking,86c10160-80a6-51c1-a651-90b0fb1cbff2,2021-08-30 06:23:09,get-url,success,201.0000, Transaction OK,509.31,EUR,,,,,,Lemura Ol 100256192,,,,,100256192,,</t>
   </si>
   <si>
-    <t>FA Ports_moto,21c25c02-2523-1e2e-22e1-88cbd61a610a,,creditcard,2f13ed33-1a25-11f1-8023-0621138f1fd3,2021-08-20 08:52:26,purchase,failed,100.1018,The same Request Id for the Merchant Account is being tried a second time.  Please use another Request Id.,220.560000,GBP,,,,,,,,,,,</t>
+    <t>Lemura Newtime_SOFU,5bca8af2-3fd1-5f03-b2ee-b82251162291,a2e85293a2b952d2886a92d28ff29fc2-get-url,sofortbanking,0cdf23cc-ac0b-5929-b121-df9520bbdd3c,2021-08-30 06:22:30,get-url,success,201.0000, Transaction OK,112.1,EUR,,,,,,Lemura Ol 100256196,,,,,100256196,,</t>
   </si>
   <si>
-    <t>FA Ports_moto,21c25c02-2523-1e2e-22e1-88cbd61a610a,1122032-1123228,creditcard,30d20605-ba33-12c5-25ef-2802282f2bef,2021-08-20 12:05:22,purchase,failed,100.1018,This Merchant Account does not have a Provider Account associated with it.  Please contact technical support.,21.150000,EUR,,,,,,,,,,,</t>
+    <t>Lemura Newtime_SOFU,5bca8af2-3fd1-5f03-b2ee-b82251162291,a2e85293a2b952d2886a92d28ff29fc2,sofortbanking,262306ae-c213-5558-b982-d2820c1a6128,2021-08-30 06:23:20,debit,success,201.1126,Transaction ok.,112.1,EUR,,,,,,Lemura Ol 100256196,0cdf23cc-ac0b-5929-b121-df9520bbdd3c,,,,100256196,,</t>
   </si>
   <si>
-    <t>FA Ports_moto,21c25c02-2523-1e2e-22e1-88cbd61a610a,1122032-1123228+,creditcard,cf2ee6f3-a0f5-13a8-bf81-6ca5c115ca2f,2021-08-20 12:05:28,purchase,success,201.0000,Transaction OK.,21.150000,GBP,,,,,,,,,,,</t>
+    <t>Lemura Newtime_SOFU,5bca8af2-3fd1-5f03-b2ee-b82251162291,dc985682b63c2026ce5daaa355ccfac9,sofortbanking,f201181f-c901-566a-8dc5-f091ab3fbc5e,2021-08-30 06:22:00,debit,failed,200.1108,Transaction processing aborted.,509.31,EUR,,,,,,Lemura Ol 100256192,86c10160-80a6-51c1-a651-90b0fb1cbff2,,,,100256192,,</t>
   </si>
   <si>
-    <t>FA Ports_moto,21c25c02-2523-1e2e-22e1-88cbd61a610a,1512655-1128000,creditcard,c0a2fca2-1e38-1808-b6d1-82b2ed0a2f8e,2021-08-20 12:03:03,purchase,success,201.0000,Transaction OK.,20.280000,GBP,,,,,,,,,,,</t>
+    <t>Lemura Newtime_SOFU,5bca8af2-3fd1-5f03-b2ee-b82251162291,faa1fab31b265118f8a1da1e611261c2-get-url,sofortbanking,6581b631-fce2-5e1f-8b30-21c68b909020,2021-08-30 01:06:26,get-url,success,201.0000, Transaction OK,538.92,EUR,,,,,,Lemura Ol 100256198,,,,,100256198,,</t>
   </si>
   <si>
-    <t>FA Ports_moto,21c25c02-2523-1e2e-22e1-88cbd61a610a,1511115-1123222,creditcard,d150bb22-de61-1ec2-a2f8-2602efdf2052,2021-08-20 12:21:12,purchase,success,201.0000,Transaction OK.,61.120000,GBP,,,,,,,,,,,</t>
+    <t>Lemura Newtime_SOFU,5bca8af2-3fd1-5f03-b2ee-b82251162291,faa1fab31b265118f8a1da1e611261c2,sofortbanking,1c696153-11cc-5200-be5f-11d3152c9299,2021-08-30 01:50:01,debit,failed,200.1108,Transaction processing aborted.,538.92,EUR,,,,,,Lemura Ol 100256198,6581b631-fce2-5e1f-8b30-21c68b909020,,,,100256198,,</t>
   </si>
   <si>
-    <t>FA Ports_moto,21c25c02-2523-1e2e-22e1-88cbd61a610a,1506616-1123263,creditcard,bb0d1851-8df6-15ba-b220-c16e6d5de652,2021-08-20 12:01:21,purchase,success,201.0000,Transaction OK.,132.830000,GBP,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>FA Ports_moto,21c25c02-2523-1e2e-22e1-88cbd61a610a,1268683-1128180,creditcard,16611222-dacd-1561-8321-52d56658c265,2021-08-20 11:12:12,purchase,failed,100.1018,This Merchant Account does not have a Provider Account associated with it.  Please contact technical support.,28.100000,EUR,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>FA Ports_moto,21c25c02-2523-1e2e-22e1-88cbd61a610a,1268683-1128180+,creditcard,0c212c5a-6226-181c-28aa-c5ef658b8222,2021-08-20 11:12:52,purchase,success,201.0000,Transaction OK.,28.100000,GBP,,,,,,,,,,,</t>
+    <t>Lemura Newtime_SOFU,5bca8af2-3fd1-5f03-b2ee-b82251162291,3ce25125bdb0112e36c1816110953ffe-get-url,sofortbanking,932add21-ad9c-52c6-9eed-8131bfc8605b,2021-08-30 09:06:11,get-url,success,201.0000, Transaction OK,539.35,EUR,,,,,,Lemura Ol 100256815,,,,,100256815,,</t>
   </si>
 </sst>
 </file>
@@ -890,9 +884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -936,16 +932,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
